--- a/docs/geral/self-and-hetero-evaluation/evaluation.xlsx
+++ b/docs/geral/self-and-hetero-evaluation/evaluation.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35193\Desktop\universidade\5Semestre\Projeto\p5sem-3dj-g59\docs\geral\self-and-hetero-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C527D6-EA8F-465A-8AB9-6CE472476EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA6F1326-010D-49FD-9D7D-F71BB6D9E92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{761A4253-BAAC-4708-9148-E267931028E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{761A4253-BAAC-4708-9148-E267931028E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint-B" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint-C" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
   <si>
     <t>Nome</t>
   </si>
@@ -345,25 +346,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -389,24 +383,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,6 +420,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -741,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35EF8C7-E6C8-4904-9AA1-58525B620F0B}">
-  <dimension ref="B1:J20"/>
+  <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,299 +763,296 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="10">
         <v>2</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="10">
         <v>3</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="10">
         <v>4</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>1190378</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="str">
+      <c r="F4" s="1"/>
+      <c r="G4" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" t="str">
         <f>C15</f>
         <v>Outstanding</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="J4" s="2" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1221276</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="3" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
-      <c r="F5" s="4" t="str">
+      <c r="F5" s="3" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4" t="str">
+      <c r="G5" s="1"/>
+      <c r="H5" s="3" t="str">
         <f>C15</f>
         <v>Outstanding</v>
       </c>
-      <c r="I5" s="4" t="str">
+      <c r="I5" s="3" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
-      <c r="J5" s="5" t="str">
+      <c r="J5" s="4" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="15">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>1221071</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" t="str">
         <f>C13</f>
         <v>Fair</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="23" t="str">
+      <c r="H6" s="1"/>
+      <c r="I6" t="str">
         <f>C13</f>
         <v>Fair</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="2" t="str">
         <f>C13</f>
         <v>Fair</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1221023</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="3" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
-      <c r="F7" s="4" t="str">
+      <c r="F7" s="3" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="G7" s="3" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="3" t="str">
         <f>C15</f>
         <v>Outstanding</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="5" t="str">
+      <c r="I7" s="1"/>
+      <c r="J7" s="4" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1221948</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6" t="str">
+      <c r="E8" s="5" t="str">
         <f>C13</f>
         <v>Fair</v>
       </c>
-      <c r="F8" s="6" t="str">
+      <c r="F8" s="5" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
-      <c r="G8" s="6" t="str">
+      <c r="G8" s="5" t="str">
         <f>C13</f>
         <v>Fair</v>
       </c>
-      <c r="H8" s="6" t="str">
+      <c r="H8" s="5" t="str">
         <f>C14</f>
         <v>Good</v>
       </c>
-      <c r="I8" s="6" t="str">
+      <c r="I8" s="5" t="str">
         <f>C13</f>
         <v>Fair</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="39"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="40"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1067,4 +1066,557 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7EF84-7878-4941-B989-CD3E8DD88EE8}">
+  <dimension ref="B1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>3</v>
+      </c>
+      <c r="I3" s="10">
+        <v>4</v>
+      </c>
+      <c r="J3" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1190378</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1221276</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1221071</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="str">
+        <f>C14</f>
+        <v>Good</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="13">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1221023</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="14">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1221948</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010076764391778E2B4FBABC02A2DE5CC80E" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504f78af75839170acf18c38bafffded">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b163ee49-d5ca-4566-8d9a-132778b8595f" xmlns:ns4="bd9de7ca-1bc7-4476-8342-8c6da5362d49" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d9e7ce94a3d96ecc1310bcd2ca029c0" ns3:_="" ns4:_="">
+    <xsd:import namespace="b163ee49-d5ca-4566-8d9a-132778b8595f"/>
+    <xsd:import namespace="bd9de7ca-1bc7-4476-8342-8c6da5362d49"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b163ee49-d5ca-4566-8d9a-132778b8595f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="10" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="14" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bd9de7ca-1bc7-4476-8342-8c6da5362d49" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="13" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b163ee49-d5ca-4566-8d9a-132778b8595f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6058AE7A-409F-471B-A986-BE157573306F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b163ee49-d5ca-4566-8d9a-132778b8595f"/>
+    <ds:schemaRef ds:uri="bd9de7ca-1bc7-4476-8342-8c6da5362d49"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8BF6DF0-9CA8-4C6D-823D-DA6F06C0DF3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6302BAB3-A3DB-4CD8-83F6-8D0144E1DE78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b163ee49-d5ca-4566-8d9a-132778b8595f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bd9de7ca-1bc7-4476-8342-8c6da5362d49"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>